--- a/Data Analysis/Oxy/All Clusters In Dataset/A3.xlsx
+++ b/Data Analysis/Oxy/All Clusters In Dataset/A3.xlsx
@@ -13,33 +13,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>clusterLabels</t>
   </si>
   <si>
-    <t>buzz 06-23-2022.mat</t>
-  </si>
-  <si>
-    <t>captain 09-12-2022.mat</t>
-  </si>
-  <si>
-    <t>ken 09-12-2022.mat</t>
-  </si>
-  <si>
-    <t>slinky 06-10-2022.mat</t>
-  </si>
-  <si>
-    <t>slinky 06-13-2022.mat</t>
-  </si>
-  <si>
-    <t>slinky 06-14-2022.mat</t>
-  </si>
-  <si>
-    <t>trixie 06-01-2022.mat</t>
-  </si>
-  <si>
-    <t>trixie 06-23-2022.mat</t>
+    <t>bopeep 09-08-2022.mat</t>
+  </si>
+  <si>
+    <t>captain 06-03-2022.mat</t>
+  </si>
+  <si>
+    <t>captain 09-13-2022.mat</t>
+  </si>
+  <si>
+    <t>trixie 06-02-2022.mat</t>
+  </si>
+  <si>
+    <t>trixie 06-21-2022.mat</t>
+  </si>
+  <si>
+    <t>wanda 06-10-2022.mat</t>
+  </si>
+  <si>
+    <t>wanda 06-23-2022.mat</t>
+  </si>
+  <si>
+    <t>wanda 07-01-2022.mat</t>
+  </si>
+  <si>
+    <t>wanda 09-09-2022.mat</t>
+  </si>
+  <si>
+    <t>woody 06-16-2022.mat</t>
+  </si>
+  <si>
+    <t>woody 09-09-2022.mat</t>
+  </si>
+  <si>
+    <t>woody 09-12-2022.mat</t>
+  </si>
+  <si>
+    <t>woody 09-13-2022.mat</t>
   </si>
   <si>
     <t>clusterX</t>
@@ -91,12 +106,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.37890625" customWidth="true"/>
-    <col min="3" max="3" width="16.37890625" customWidth="true"/>
+    <col min="1" max="1" width="20.82421875" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="13.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -104,10 +119,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -115,10 +130,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>-7.7523740695518546</v>
+        <v>0.59112977046794657</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.00013182750754279953</v>
+        <v>-1.1731715629466775</v>
       </c>
     </row>
     <row r="3">
@@ -126,10 +141,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>-8.7681688501567585</v>
+        <v>0.80931539726417556</v>
       </c>
       <c r="C3" s="0">
-        <v>-9.2247061640064566e-05</v>
+        <v>-0.65336413969582186</v>
       </c>
     </row>
     <row r="4">
@@ -137,10 +152,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>-8.1706674464636873</v>
+        <v>1.5284458473210647</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00010981546837867171</v>
+        <v>-0.16621200794366942</v>
       </c>
     </row>
     <row r="5">
@@ -148,10 +163,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>-8.5494981949408206</v>
+        <v>0.26940613825825982</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.00017558670296545021</v>
+        <v>-1.2720165061083795</v>
       </c>
     </row>
     <row r="6">
@@ -159,10 +174,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>-8.3129130375233711</v>
+        <v>2.3872410746057073</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.00012206889594357234</v>
+        <v>0.67188555397760796</v>
       </c>
     </row>
     <row r="7">
@@ -170,10 +185,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>-8.3129130375233711</v>
+        <v>0.4037455418214474</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.00012206889594357234</v>
+        <v>0.38286413244195294</v>
       </c>
     </row>
     <row r="8">
@@ -181,10 +196,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>-8.3129130375233711</v>
+        <v>0.4037455418214474</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.00012206889594357234</v>
+        <v>0.38286413244195294</v>
       </c>
     </row>
     <row r="9">
@@ -192,10 +207,65 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>-7.9565534001260758</v>
+        <v>0.4037455418214474</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.00012169661941301809</v>
+        <v>0.38286413244195294</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.4037455418214474</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.38286413244195294</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.43028563730018643</v>
+      </c>
+      <c r="C11" s="0">
+        <v>-0.58090076241654542</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0">
+        <v>1.2762545992995848</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.54102047068219572</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0">
+        <v>1.2762545992995848</v>
+      </c>
+      <c r="C13" s="0">
+        <v>-0.54102047068219572</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0">
+        <v>1.2762545992995848</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.54102047068219572</v>
       </c>
     </row>
   </sheetData>
